--- a/src/cab/perm/falcon.fm.book.xlsx
+++ b/src/cab/perm/falcon.fm.book.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59402FF-6796-EF40-B621-9AF8E0B6C355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F73AF-5EAB-944A-B24A-96A725837AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>permId</t>
   </si>
   <si>
-    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
-  </si>
-  <si>
     <t>操作基本数据</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>criteria</t>
+  </si>
+  <si>
+    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A5:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" customHeight="1"/>
@@ -749,7 +749,7 @@
     </row>
     <row r="8" spans="1:11" ht="21">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="9" spans="1:11" ht="21">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="10" spans="1:11" ht="21">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>13</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="11" spans="1:11" ht="21">
       <c r="A11" s="11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="12" spans="1:11" ht="21">
       <c r="A12" s="11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="13" spans="1:11" ht="21">
       <c r="A13" s="11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>19</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -848,13 +848,13 @@
     </row>
     <row r="19" spans="1:11" ht="21">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
@@ -863,22 +863,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21">
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>6</v>
@@ -898,22 +898,22 @@
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/cab/perm/falcon.fm.book.xlsx
+++ b/src/cab/perm/falcon.fm.book.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F73AF-5EAB-944A-B24A-96A725837AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59402FF-6796-EF40-B621-9AF8E0B6C355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,6 +107,9 @@
     <t>permId</t>
   </si>
   <si>
+    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
+  </si>
+  <si>
     <t>操作基本数据</t>
   </si>
   <si>
@@ -153,9 +156,6 @@
   </si>
   <si>
     <t>criteria</t>
-  </si>
-  <si>
-    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A5:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" customHeight="1"/>
@@ -749,7 +749,7 @@
     </row>
     <row r="8" spans="1:11" ht="21">
       <c r="A8" s="11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="9" spans="1:11" ht="21">
       <c r="A9" s="11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="10" spans="1:11" ht="21">
       <c r="A10" s="11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>13</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="11" spans="1:11" ht="21">
       <c r="A11" s="11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="12" spans="1:11" ht="21">
       <c r="A12" s="11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="13" spans="1:11" ht="21">
       <c r="A13" s="11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>19</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -848,13 +848,13 @@
     </row>
     <row r="19" spans="1:11" ht="21">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
@@ -863,22 +863,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21">
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>6</v>
@@ -898,22 +898,22 @@
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
